--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Data matrimonio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
   </si>
   <si>
     <t>Officiante</t>
@@ -412,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -648,16 +657,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>33</v>
@@ -668,16 +677,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -688,7 +697,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>37</v>
@@ -697,10 +706,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -708,19 +717,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -728,19 +737,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -748,19 +757,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -768,19 +777,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -788,19 +797,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -808,19 +817,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -828,19 +837,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -848,19 +857,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -868,19 +877,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -888,19 +897,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
@@ -908,19 +917,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -928,19 +937,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -948,19 +957,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -968,19 +977,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -988,19 +997,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1008,19 +1017,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1028,19 +1037,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1048,19 +1057,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1068,19 +1077,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1088,19 +1097,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1108,19 +1117,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1128,19 +1137,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1148,19 +1157,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1168,19 +1177,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -1188,19 +1197,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1208,19 +1217,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -1228,19 +1237,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1248,19 +1257,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1268,19 +1277,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1288,19 +1297,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1308,19 +1317,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1328,19 +1337,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -1348,19 +1357,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1368,19 +1377,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -1388,19 +1397,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -1408,19 +1417,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1428,19 +1437,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1448,19 +1457,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -1468,19 +1477,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -1488,19 +1497,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -1508,19 +1517,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -1528,19 +1537,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -1548,19 +1557,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -1568,19 +1577,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1588,19 +1597,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -1608,19 +1617,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -1628,19 +1637,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -1648,19 +1657,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -1668,19 +1677,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -1688,19 +1697,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1708,19 +1717,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1728,19 +1737,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1748,19 +1757,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1768,19 +1777,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -1788,19 +1797,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -1808,19 +1817,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -1828,19 +1837,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -1848,19 +1857,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -1868,19 +1877,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -1888,19 +1897,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -1908,19 +1917,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -1928,19 +1937,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -1948,19 +1957,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1968,19 +1977,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -1988,19 +1997,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2008,10 +2017,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -2020,7 +2029,7 @@
         <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2028,7 +2037,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>89</v>
@@ -2037,10 +2046,10 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2048,19 +2057,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2068,19 +2077,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2088,19 +2097,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2108,19 +2117,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2128,19 +2137,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2148,19 +2157,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2168,19 +2177,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2188,19 +2197,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2208,19 +2217,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2228,19 +2237,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2248,19 +2257,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2268,19 +2277,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2288,19 +2297,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2308,19 +2317,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2328,19 +2337,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2348,21 +2357,61 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F97" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -421,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -433,6 +439,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -454,45 +461,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -514,1905 +530,2193 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -439,7 +439,7 @@
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,28 +32,31 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Richiesta di trascrizione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Richiesta di trascrizione</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -531,2192 +534,2192 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -95,6 +95,60 @@
     <t>Dati generali</t>
   </si>
   <si>
+    <t>Data Evento Matrimonio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.luogoCelebrazione</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Comune estero</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Tipo richiesta</t>
   </si>
   <si>
@@ -116,15 +170,6 @@
     <t>testoLibero</t>
   </si>
   <si>
-    <t>Data matrimonio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio</t>
-  </si>
-  <si>
-    <t>dataEvento</t>
-  </si>
-  <si>
     <t>Officiante</t>
   </si>
   <si>
@@ -345,12 +390,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Comune estero</t>
-  </si>
-  <si>
-    <t>comuneEstero</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -430,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -663,10 +702,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
@@ -680,16 +719,16 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
@@ -703,13 +742,13 @@
         <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>36</v>
@@ -723,19 +762,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -746,19 +785,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -769,19 +808,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -792,19 +831,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -815,19 +854,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -838,19 +877,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -861,19 +900,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -884,7 +923,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>53</v>
@@ -893,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>54</v>
@@ -907,19 +946,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -930,19 +969,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -953,19 +992,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -976,19 +1015,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -999,19 +1038,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1022,19 +1061,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1045,19 +1084,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1068,19 +1107,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1091,19 +1130,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1114,19 +1153,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1137,19 +1176,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1160,19 +1199,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1183,19 +1222,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1206,19 +1245,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1229,19 +1268,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1252,19 +1291,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1275,19 +1314,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1298,19 +1337,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1321,19 +1360,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1344,19 +1383,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1367,19 +1406,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1429,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1413,19 +1452,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1436,7 +1475,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>55</v>
@@ -1445,10 +1484,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1498,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1521,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1544,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1567,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1590,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1613,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1636,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1659,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1682,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1705,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1728,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1751,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1774,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1797,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1820,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1843,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1866,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1889,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1912,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1935,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1958,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1942,7 +1981,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>55</v>
@@ -1951,10 +1990,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1965,19 +2004,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1988,19 +2027,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2050,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2073,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2096,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2119,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2142,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2165,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2188,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2211,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2234,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2257,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2280,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2303,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2326,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2349,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2333,19 +2372,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2356,19 +2395,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2418,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2441,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2464,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2487,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2510,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2533,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2517,7 +2556,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>114</v>
@@ -2526,10 +2565,10 @@
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2579,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2602,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2625,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2648,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2671,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2694,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2717,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2701,24 +2740,185 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -143,7 +143,7 @@
     <t>nomeComune</t>
   </si>
   <si>
-    <t>Comune estero</t>
+    <t>Località estera</t>
   </si>
   <si>
     <t>comuneEstero</t>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -469,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1179,16 +1182,16 @@
         <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1202,7 +1205,7 @@
         <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
@@ -1211,7 +1214,7 @@
         <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1225,7 +1228,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
@@ -1234,7 +1237,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1248,7 +1251,7 @@
         <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>13</v>
@@ -1257,7 +1260,7 @@
         <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1271,16 +1274,16 @@
         <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1294,7 +1297,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1303,7 +1306,7 @@
         <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1317,7 +1320,7 @@
         <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
@@ -1326,7 +1329,7 @@
         <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1340,7 +1343,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1349,7 +1352,7 @@
         <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1363,7 +1366,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1372,7 +1375,7 @@
         <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1386,16 +1389,16 @@
         <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1409,7 +1412,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
@@ -1418,7 +1421,7 @@
         <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1432,7 +1435,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
@@ -1441,7 +1444,7 @@
         <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1455,16 +1458,16 @@
         <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1475,19 +1478,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1498,19 +1501,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1521,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1544,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1567,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1590,19 +1593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1938,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2119,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2142,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2191,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2237,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2260,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2283,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2306,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2375,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2421,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2490,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2513,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2536,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2559,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2582,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2605,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2628,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2651,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2674,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2697,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2720,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2743,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2766,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2789,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2812,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2832,19 +2835,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2855,19 +2858,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2878,19 +2881,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2901,24 +2904,93 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,6 +327,30 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -472,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2030,19 +2054,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2077,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2100,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2123,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2146,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2169,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2192,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2215,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2238,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2261,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2284,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2307,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2330,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,19 +2353,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2352,19 +2376,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2375,19 +2399,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2398,19 +2422,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2421,19 +2445,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2444,19 +2468,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2467,19 +2491,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2490,19 +2514,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2513,19 +2537,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2536,19 +2560,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2559,19 +2583,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2582,19 +2606,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2605,19 +2629,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2628,19 +2652,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2651,19 +2675,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2674,19 +2698,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2697,19 +2721,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2720,19 +2744,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2743,19 +2767,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2766,19 +2790,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2789,19 +2813,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2812,19 +2836,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2835,19 +2859,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2858,19 +2882,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2881,19 +2905,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2904,7 +2928,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>131</v>
@@ -2913,10 +2937,10 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2927,19 +2951,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2950,19 +2974,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2973,24 +2997,208 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,6 +194,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -245,13 +251,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -496,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1071,7 +1077,7 @@
         <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>56</v>
@@ -1117,7 +1123,7 @@
         <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>56</v>
@@ -1206,7 +1212,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -1215,7 +1221,7 @@
         <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1229,10 +1235,10 @@
         <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>56</v>
@@ -1324,7 +1330,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>56</v>
@@ -1439,7 +1445,7 @@
         <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>56</v>
@@ -1508,7 +1514,7 @@
         <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>56</v>
@@ -1525,19 +1531,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1554,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1577,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1600,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2359,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2382,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2428,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2520,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2560,19 +2566,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2589,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2612,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2635,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2658,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2681,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2704,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2727,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2770,16 +2776,16 @@
         <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2793,16 +2799,16 @@
         <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2816,16 +2822,16 @@
         <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2836,19 +2842,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2865,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2905,19 +2911,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2934,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2980,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3003,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3026,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3049,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3066,19 +3072,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3118,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3135,19 +3141,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3164,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3181,24 +3187,93 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="B119" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -502,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1307,7 +1313,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>56</v>
@@ -1330,7 +1336,7 @@
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>56</v>
@@ -1468,7 +1474,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>56</v>
@@ -1537,7 +1543,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>56</v>
@@ -1554,19 +1560,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1583,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1606,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1721,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1744,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1790,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1813,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1836,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1945,19 +1951,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1968,19 +1974,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2037,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2060,19 +2066,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2089,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2135,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2181,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2273,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2319,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2428,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2451,19 +2457,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2474,19 +2480,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2497,19 +2503,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2543,19 +2549,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2566,19 +2572,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2635,19 +2641,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2658,19 +2664,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2681,19 +2687,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2704,19 +2710,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2727,19 +2733,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2750,19 +2756,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2773,19 +2779,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2796,19 +2802,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2825,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2845,16 +2851,16 @@
         <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2868,16 +2874,16 @@
         <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2891,16 +2897,16 @@
         <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2917,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2940,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2963,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,19 +2986,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3003,19 +3009,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3026,19 +3032,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3095,19 +3101,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3118,19 +3124,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3141,19 +3147,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3164,19 +3170,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3187,19 +3193,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3210,19 +3216,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3233,19 +3239,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3256,24 +3262,93 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="B122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,15 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>Documenti utilizzati per la pubblicazione</t>
+  </si>
+  <si>
+    <t>Certificato medico</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
     <t>193</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -261,6 +267,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -508,14 +520,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.29296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
@@ -571,2785 +583,2900 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>19</v>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,6 +381,84 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Sposo</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Nascita Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
   </si>
   <si>
     <t>Atto da trascrivere</t>
@@ -520,17 +598,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.71875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.84375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.29296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3050,7 +3128,7 @@
         <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>125</v>
@@ -3073,7 +3151,7 @@
         <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>125</v>
@@ -3096,7 +3174,7 @@
         <v>129</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>125</v>
@@ -3119,7 +3197,7 @@
         <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>125</v>
@@ -3142,7 +3220,7 @@
         <v>133</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>125</v>
@@ -3171,7 +3249,7 @@
         <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3185,7 +3263,7 @@
         <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3194,7 +3272,7 @@
         <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3208,7 +3286,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3217,7 +3295,7 @@
         <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3231,7 +3309,7 @@
         <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3240,7 +3318,7 @@
         <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3254,7 +3332,7 @@
         <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3263,7 +3341,7 @@
         <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3274,19 +3352,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3375,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3320,19 +3398,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3343,19 +3421,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3366,19 +3444,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3389,19 +3467,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3412,19 +3490,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3435,19 +3513,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3458,24 +3536,576 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -598,14 +604,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.29296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2622,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2760,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2783,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2806,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2829,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2852,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2898,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2921,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2944,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2990,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3013,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3036,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3059,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3082,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3105,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3125,16 +3131,16 @@
         <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3148,16 +3154,16 @@
         <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3243,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3266,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3289,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3312,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3335,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3358,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3381,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3404,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3427,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3450,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3467,19 +3473,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3490,19 +3496,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3513,19 +3519,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3536,19 +3542,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3559,19 +3565,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3588,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3605,19 +3611,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3628,19 +3634,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3651,19 +3657,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3677,16 +3683,16 @@
         <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3700,16 +3706,16 @@
         <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3720,19 +3726,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3743,19 +3749,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3766,19 +3772,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3789,19 +3795,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3812,19 +3818,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3835,19 +3841,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3858,19 +3864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3881,19 +3887,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,19 +3910,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3927,19 +3933,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3956,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3973,19 +3979,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3996,19 +4002,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4019,19 +4025,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4042,19 +4048,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4065,19 +4071,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4088,24 +4094,70 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="B153" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -375,12 +375,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Generalità Sposa</t>
@@ -604,14 +598,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.29296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.1796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -2438,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2455,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2478,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2524,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2553,19 +2547,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2576,19 +2570,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2599,19 +2593,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2616,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2662,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2731,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2754,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2800,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2852,19 +2846,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2875,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2898,19 +2892,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2921,19 +2915,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2944,19 +2938,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2967,19 +2961,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2990,19 +2984,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3013,19 +3007,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3036,19 +3030,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,19 +3053,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3082,19 +3076,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3105,19 +3099,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3131,16 +3125,16 @@
         <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3154,16 +3148,16 @@
         <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3197,19 +3191,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3220,19 +3214,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3243,19 +3237,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3266,19 +3260,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3312,19 +3306,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3329,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3358,19 +3352,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3381,19 +3375,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3404,19 +3398,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3427,19 +3421,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,19 +3444,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3473,19 +3467,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,19 +3490,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3519,19 +3513,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3542,19 +3536,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3565,19 +3559,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3588,19 +3582,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3611,19 +3605,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3634,19 +3628,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3657,19 +3651,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3683,16 +3677,16 @@
         <v>149</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3706,16 +3700,16 @@
         <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3726,19 +3720,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3749,19 +3743,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3772,19 +3766,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3795,19 +3789,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3818,19 +3812,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3841,19 +3835,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3864,19 +3858,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3887,19 +3881,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3910,19 +3904,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3933,19 +3927,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3956,19 +3950,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3979,19 +3973,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -4002,19 +3996,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4025,19 +4019,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4048,19 +4042,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4071,19 +4065,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4094,70 +4088,24 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -155,16 +155,10 @@
     <t>comuneEstero</t>
   </si>
   <si>
-    <t>Tipo richiesta</t>
+    <t>Data richiesta</t>
   </si>
   <si>
     <t>evento.trascrizioneMatrimonio</t>
-  </si>
-  <si>
-    <t>tipoDichiarazione</t>
-  </si>
-  <si>
-    <t>Data richiesta</t>
   </si>
   <si>
     <t>dataComunicazione</t>
@@ -604,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1081,19 +1075,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1104,19 +1098,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1127,16 +1121,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>59</v>
@@ -1150,16 +1144,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>61</v>
@@ -1173,7 +1167,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>62</v>
@@ -1182,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1196,7 +1190,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>64</v>
@@ -1205,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -1219,16 +1213,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
@@ -1242,7 +1236,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>68</v>
@@ -1251,7 +1245,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>69</v>
@@ -1265,16 +1259,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>71</v>
@@ -1288,7 +1282,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>72</v>
@@ -1297,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>73</v>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1320,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>75</v>
@@ -1334,7 +1328,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>76</v>
@@ -1343,7 +1337,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>77</v>
@@ -1357,19 +1351,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1380,16 +1374,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1403,7 +1397,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1412,7 +1406,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1426,16 +1420,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1449,7 +1443,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1458,7 +1452,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1472,7 +1466,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
@@ -1481,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1495,7 +1489,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1504,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1518,7 +1512,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
@@ -1527,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1541,7 +1535,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1550,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1564,7 +1558,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1573,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1587,7 +1581,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
@@ -1596,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1610,7 +1604,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1619,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1633,16 +1627,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1656,7 +1650,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
@@ -1665,7 +1659,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1679,7 +1673,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1688,7 +1682,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1702,16 +1696,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1725,19 +1719,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1748,16 +1742,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>59</v>
@@ -1771,16 +1765,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>61</v>
@@ -1794,16 +1788,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>63</v>
@@ -1817,7 +1811,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>64</v>
@@ -1826,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>65</v>
@@ -1840,7 +1834,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>66</v>
@@ -1849,7 +1843,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>67</v>
@@ -1863,7 +1857,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>68</v>
@@ -1872,7 +1866,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>69</v>
@@ -1886,16 +1880,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>71</v>
@@ -1909,7 +1903,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>72</v>
@@ -1918,7 +1912,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>73</v>
@@ -1932,7 +1926,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>74</v>
@@ -1941,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>75</v>
@@ -1955,7 +1949,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>76</v>
@@ -1964,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>77</v>
@@ -1978,19 +1972,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2001,16 +1995,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>80</v>
@@ -2024,7 +2018,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>81</v>
@@ -2033,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>82</v>
@@ -2047,16 +2041,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>84</v>
@@ -2070,7 +2064,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>85</v>
@@ -2079,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>86</v>
@@ -2093,7 +2087,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>87</v>
@@ -2102,7 +2096,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>88</v>
@@ -2116,7 +2110,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>89</v>
@@ -2125,7 +2119,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>90</v>
@@ -2139,7 +2133,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>91</v>
@@ -2148,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>92</v>
@@ -2162,7 +2156,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>93</v>
@@ -2171,7 +2165,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>94</v>
@@ -2185,7 +2179,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>95</v>
@@ -2194,7 +2188,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>96</v>
@@ -2208,7 +2202,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>97</v>
@@ -2217,7 +2211,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>98</v>
@@ -2231,7 +2225,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>99</v>
@@ -2240,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>100</v>
@@ -2254,16 +2248,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>102</v>
@@ -2277,7 +2271,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>103</v>
@@ -2286,7 +2280,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>104</v>
@@ -2300,7 +2294,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>105</v>
@@ -2309,7 +2303,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>106</v>
@@ -2323,19 +2317,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2346,7 +2340,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>113</v>
@@ -2355,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>114</v>
@@ -2369,7 +2363,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>115</v>
@@ -2378,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>116</v>
@@ -2392,7 +2386,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>117</v>
@@ -2401,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>118</v>
@@ -2415,7 +2409,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>119</v>
@@ -2424,7 +2418,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>120</v>
@@ -2438,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2461,16 +2455,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>59</v>
@@ -2484,16 +2478,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>61</v>
@@ -2507,16 +2501,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>63</v>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>64</v>
@@ -2539,7 +2533,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>65</v>
@@ -2553,7 +2547,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>66</v>
@@ -2562,7 +2556,7 @@
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>67</v>
@@ -2576,7 +2570,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>68</v>
@@ -2585,7 +2579,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>69</v>
@@ -2599,16 +2593,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>71</v>
@@ -2622,7 +2616,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>72</v>
@@ -2631,7 +2625,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>73</v>
@@ -2645,7 +2639,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>74</v>
@@ -2654,7 +2648,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>75</v>
@@ -2668,7 +2662,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>76</v>
@@ -2677,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>77</v>
@@ -2691,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2714,16 +2708,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>80</v>
@@ -2737,7 +2731,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>81</v>
@@ -2746,7 +2740,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>82</v>
@@ -2760,16 +2754,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>84</v>
@@ -2783,7 +2777,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>85</v>
@@ -2792,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>86</v>
@@ -2806,7 +2800,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>87</v>
@@ -2815,7 +2809,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>88</v>
@@ -2829,7 +2823,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>89</v>
@@ -2838,7 +2832,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>90</v>
@@ -2852,7 +2846,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>91</v>
@@ -2861,7 +2855,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>92</v>
@@ -2875,7 +2869,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>93</v>
@@ -2884,7 +2878,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>94</v>
@@ -2898,7 +2892,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>95</v>
@@ -2907,7 +2901,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>96</v>
@@ -2921,7 +2915,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>97</v>
@@ -2930,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>98</v>
@@ -2944,7 +2938,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>99</v>
@@ -2953,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>100</v>
@@ -2967,16 +2961,16 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>102</v>
@@ -2990,7 +2984,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>103</v>
@@ -2999,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>104</v>
@@ -3013,7 +3007,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>105</v>
@@ -3022,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>106</v>
@@ -3036,19 +3030,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3059,7 +3053,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>113</v>
@@ -3068,7 +3062,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>114</v>
@@ -3082,7 +3076,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>115</v>
@@ -3091,7 +3085,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>116</v>
@@ -3105,7 +3099,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>117</v>
@@ -3114,7 +3108,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>118</v>
@@ -3128,7 +3122,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>119</v>
@@ -3137,7 +3131,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>120</v>
@@ -3154,16 +3148,16 @@
         <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3174,16 +3168,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>128</v>
@@ -3197,7 +3191,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>129</v>
@@ -3206,7 +3200,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>130</v>
@@ -3220,7 +3214,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>131</v>
@@ -3229,7 +3223,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>132</v>
@@ -3243,7 +3237,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>133</v>
@@ -3252,7 +3246,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>134</v>
@@ -3266,7 +3260,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>135</v>
@@ -3275,10 +3269,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3289,19 +3283,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3312,7 +3306,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>138</v>
@@ -3321,10 +3315,10 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3335,19 +3329,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3358,7 +3352,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>141</v>
@@ -3367,7 +3361,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>142</v>
@@ -3381,7 +3375,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>143</v>
@@ -3390,7 +3384,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>144</v>
@@ -3404,7 +3398,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>145</v>
@@ -3413,7 +3407,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>146</v>
@@ -3427,19 +3421,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3450,16 +3444,16 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>128</v>
@@ -3473,7 +3467,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>129</v>
@@ -3482,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>130</v>
@@ -3496,7 +3490,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>131</v>
@@ -3505,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>132</v>
@@ -3519,7 +3513,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>133</v>
@@ -3528,7 +3522,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>134</v>
@@ -3542,7 +3536,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>135</v>
@@ -3551,10 +3545,10 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3565,19 +3559,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3588,7 +3582,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>138</v>
@@ -3597,10 +3591,10 @@
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3611,19 +3605,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3634,7 +3628,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>141</v>
@@ -3643,7 +3637,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>142</v>
@@ -3657,7 +3651,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>143</v>
@@ -3666,7 +3660,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>144</v>
@@ -3680,7 +3674,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>145</v>
@@ -3689,7 +3683,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>146</v>
@@ -3706,16 +3700,16 @@
         <v>149</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3726,16 +3720,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>154</v>
@@ -3749,7 +3743,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>155</v>
@@ -3758,7 +3752,7 @@
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>156</v>
@@ -3772,7 +3766,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>157</v>
@@ -3781,7 +3775,7 @@
         <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>158</v>
@@ -3795,7 +3789,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>159</v>
@@ -3804,7 +3798,7 @@
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>160</v>
@@ -3818,16 +3812,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>162</v>
@@ -3841,7 +3835,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>163</v>
@@ -3850,7 +3844,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>164</v>
@@ -3864,7 +3858,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>165</v>
@@ -3873,7 +3867,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>166</v>
@@ -3887,7 +3881,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>167</v>
@@ -3896,7 +3890,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>168</v>
@@ -3910,19 +3904,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3933,19 +3927,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3956,16 +3950,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>158</v>
@@ -3979,16 +3973,16 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>160</v>
@@ -4002,16 +3996,16 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>162</v>
@@ -4025,16 +4019,16 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>164</v>
@@ -4048,16 +4042,16 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>166</v>
@@ -4071,16 +4065,16 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>168</v>
@@ -4094,19 +4088,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4117,47 +4111,24 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_Matr_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -598,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1219,7 +1231,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>56</v>
@@ -1242,7 +1254,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>56</v>
@@ -1265,7 +1277,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>56</v>
@@ -1288,7 +1300,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>56</v>
@@ -1354,7 +1366,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -1363,7 +1375,7 @@
         <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1377,16 +1389,16 @@
         <v>52</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1400,10 +1412,10 @@
         <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>56</v>
@@ -1426,7 +1438,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>56</v>
@@ -1449,7 +1461,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>56</v>
@@ -1633,7 +1645,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>56</v>
@@ -1656,7 +1668,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>56</v>
@@ -1702,7 +1714,7 @@
         <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>56</v>
@@ -1719,19 +1731,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1754,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1777,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1800,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1823,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1846,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1869,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1892,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1915,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1938,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1961,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1984,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2007,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2030,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2053,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2076,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2099,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2122,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2145,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2168,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2191,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2214,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2237,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2260,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2283,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2306,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2329,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2352,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2375,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2398,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2421,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2444,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2467,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2490,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2513,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2536,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2559,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2582,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2605,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2628,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2651,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2674,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2697,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2720,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2743,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2766,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2789,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2812,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2835,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2858,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2881,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2904,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2927,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2950,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2973,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2996,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3019,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3042,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3065,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3088,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3111,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3134,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3157,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3180,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3203,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3226,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,19 +3249,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3260,19 +3272,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,19 +3295,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3306,19 +3318,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3329,19 +3341,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3364,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3387,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3410,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3433,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3456,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3467,19 +3479,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3490,19 +3502,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3513,19 +3525,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3536,19 +3548,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3559,19 +3571,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3594,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3605,19 +3617,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3628,19 +3640,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3651,19 +3663,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3674,19 +3686,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3697,19 +3709,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3720,19 +3732,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3743,19 +3755,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3766,19 +3778,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3789,19 +3801,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3812,19 +3824,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3835,19 +3847,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3858,19 +3870,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3881,19 +3893,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3904,19 +3916,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3927,19 +3939,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -3950,19 +3962,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -3973,19 +3985,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3996,19 +4008,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4019,19 +4031,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -4042,19 +4054,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
@@ -4065,19 +4077,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4088,19 +4100,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4111,24 +4123,162 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>21</v>
       </c>
     </row>
